--- a/500all/speech_level/speeches_CHRG-114hhrg96988.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96988.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. It is 9:00. We want to start promptly. There is going to be votes sometime early this morning, and we want to get the opening statements through and encourage members to get back afterwards to follow up with questions. I will recognize myself for 5 minutes for an opening statement.    Thank you all for coming to this morning's hearing to receive an update on the status of and outlook for progress on America's nuclear waste management policy. Let me state at the outset that issue of the Nation's nuclear waste management policy is not a partisan issue. The House of Representatives has repeatedly supported Yucca Mountain in an overwhelming and bipartisan manner. Last summer, efforts to abandoned Yucca Mountain were defeated on the House floor with the body voting 4 to 1 in favor of Yucca Mountain. This includes nearly two-thirds of the Chamber's Democrats.    In April, I once again led a bipartisan group of members to see Yucca Mountain site firsthand. The site is an invaluable national asset isolated in the Nevada desert, removed from all population centers, and co-located with the Nevada National Security Site.    Since my previous visit in 2011, the landscape has notably advanced to support the development of a permanent repository. In 2013, the D.C. Court of Appeals ruled that Nuclear Regulatory Commission must continue its review of the Yucca Mountain license application. The court issued a writ of mandamus, a very consequential legal action, and declared it was illegal for the NRC to stop consideration of the license. As a result of this decision, the NRC resumed the scientific and technical evaluation of the license known as the Safety and Evaluation Report, or SER. The SER looked at a plethora of potential natural and manmade scenarios which could affect the performance of the facility. In January of this year, the NRC released the fifth and final volume of the SER. The NRC staff determined the facility could meet all safety regulations including that it could safely serve as a repository for up to a million years. Meanwhile, the costs of inaction and delay continue to mount. The courts ruled the Department of Energy's dismantling of the Yucca Mountain project no longer constitute a permanent disposal program. Therefore, the Federal Government could no longer collect the nuclear waste fee, a surcharge paid by consumers of nuclear-generated electricity.    While the fee is no longer being actively collected, the Treasury Department still maintains a balance of nearly $33 billion in ratepayer money to license, construct, and operate Yucca Mountain. But it isn't just ratepayers who are paying for the consequences of the delay. All American taxpayers, regardless of whether they benefit from commercial nuclear power, are footing the legal bill, and the bill isn't cheap. Last year, the Department of Justice account that pays damages on behalf of the Federal Government, known as the Judgment Fund, paid out over $900 million in settlements as a consequence of our inability to move forward with Yucca. This accounted for nearly a third of all Federal Government legal fees.    We in the Federal Government have an obligation to uphold the law, to dispose of commercial spent nuclear fuel, as well as honor the commitment made to states who host sites to support our nuclear defense activities, including South Carolina, Idaho, and Washington State. Congress needs a willing partner to host a nuclear disposal facility as we currently have with the sites that contributed to the Manhattan Project. I am committed to working with the State and local stakeholders in Nevada, who will engage in a constructive conversation to resolve the current impasse.    Just saying no is not an option. As part of this process, we will look for areas of agreement such as facilitating a benefits package for communities to provide long-term budget stability, strengthen the State's education fund, and identify associated transportation infrastructure benefits. As a host state of a Nevada National Security Site, however, Nevada already is a constructive partner with the Federal Government to protect our National interests. This, by the way, includes storing radioactive waste onsite today.    I look forward to hearing from a broad group of stakeholders today who will highlight the need to finish a repository, as the House Representative supports, as the courts direct, and as the American people deserve.    Thank you, and I now recognize the ranking member, Mr. Tonko, for his opening statement.</t>
   </si>
   <si>
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. We are here this morning to hear from a fine panel of witnesses about the current state of nuclear waste policy. There are some things that I do not expect will have changed much from the time of our last hearing on this issue. Nuclear facilities across the country continue to generate waste that has yet to be secured in a long-term storage facility. Research and development on waste technologies continues. The law designating a storage facility is unchanged, and today we add to the many oversight hearings the subcommittee has held over the years.    But we still have no real solution, even an interim one, to offer to the witnesses at the table today and the constituencies that they do, indeed, represent. There have been reports by the National Academy of Sciences, the Government Accountability Office, industry and nongovernmental groups, and the President's Blue Ribbon Commission. Ironically, we have a long-term storage facility, and yet we do not. And we do not have interim storage facilities or a policy of establishing them, and yet we do. Essentially the storage facilities at each of the powerplant sites around the country now serve as de facto interim storage facilities.    We need a solution to this situation. It will not be easy, and it will be expensive. But the alternative is also expensive and provides less safety, less security than a functioning, ordered process for dealing with spent fuel. And Mr. Fitz reminds us that we also have to deal with legacy waste from our defense programs.    I know the chair and others on this committee are resolved to complete the process of opening the Yucca Mountain facility, but the Yucca Mountain facility is not open at this time, and it does not appear it will be open in the near future. In the meantime, spent fuel continues to accumulate, and penalty fees continue to accrue. I continue to believe that it is worth examining additional options for dealing with this waste.    The administration's strategy, based on the work done by the Blue Ribbon Commission in 2012, has challenges and unknowns. Should we pursue a system that includes both interim and long-term storage of waste? If so, how do we proceed? If there are to be interim sites, how many will be needed? How much waste can or should be stored at them, and what time period qualifies as interim? What are the costs, and can we access the necessary funds to the fund established to deal with this problem?    I do not expect to hear definitive answers to these questions this morning, but I do think it is time that we examined all options for moving forward. I think the future for nuclear power is in question if we do not find a way to deal with this issue.    I want to thank all of our witnesses for appearing before the subcommittee today. I look forward to your testimony and to your suggestions on options to move forward on what is a very critical and important issue.    And, with that, Mr. Chair, I yield back.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I want to thank you and Ranking Member Tonko for holding this hearing today.    Much has changed since the Nuclear Waste Policy Act became law in 1982, which allowed the Secretary of Energy to remove spent nuclear fuel from commercial nuclear power plants in exchange for fees and transported to a permanent geological repository. But I think the past three decades of the nuclear waste program might be best summed up this way: Lots of change but very little progress.    Unfortunately, the one thing that seems most resistant to change is the program's ongoing failure to the ratepayers, who have paid into the fund. That failure also applies to the taxpayers, who are now having to pay damages through the Judgment Fund administered by DOJ. In New Jersey, we have several operating nuclear reactors that provide carbon-free electricity, and this includes Oyster Creek, the Nation's oldest operating plant, which will soon stop providing power but will continue to provide a home to spent nuclear fuel long into the future unless we can come together on a plan to fix this program.    My point is this: I am not interested in litigating the wisdom of the administration's actions with regard to Yucca Mountain because that won't help move waste out of New Jersey, Illinois, New York, Michigan, or anywhere else anytime soon. I am, however, interested in making progress, and I hope this committee will put the ratepayer and taxpayer first and focus on efforts that can be enacted into law and that will move us forward over the next few years. I am encouraged by recent developments on potential consensus sites for interim storage in Texas and New Mexico, and we should look closely at the prospects they offer. That in no way means we should curtail our push for a permanent repository, but I do believe the best path forward is to work to identify steps we can take now to set the stage for real reform on permanent disposal in the future, regardless of where the disposal facility ends up being sited.    Again, thank you for holding this hearing. I look forward to hearing from our witnesses and working with all my colleagues, stakeholders, and the administration to put our Nation's nuclear waste program back on track.    And I would yield the balance of my time to the gentleman from California, Mr. McNerney.</t>
   </si>
   <si>
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. I want to thank the ranking member, and I thank the chairman of the subcommittee for his work on this issue. Managing nuclear waste is an engineering and a political problem. Based on the work I did as a graduate student for the Nuclear Engineering Department at the University of New Mexico, I believe the engineering problem can be solved safely and satisfactorily.    Experience has shown that in order to find a location with the support of the local community, we are going to need complete transparency and the involvement of the local community in order to be accepted by the local community.    More than $10 billion has been spent on the Yucca Mountain project, and that money may be wasted because there wasn't the transparency and local involvement that would be required. The current situation we have invites a Fukushima-style disaster to happen in this country because there is so much waste stored in so various locations as we will hear near the Columbia River and other places. So are we going to need a solution? I thank the chairman for his work, and I think we need to work together in a bipartisan way to find a way forward, Mr. Chairman.    And, again, I yield back.</t>
   </si>
   <si>
@@ -94,51 +82,33 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Fitz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fitz. There we go. On behalf of the State of Washington, Office of the Attorney General, I appreciate the opportunity to be here before you today. Washington State has a keen interest in the development of a permanent repository for high-level radioactive waste and spent nuclear fuel. For nearly eight decades, we have honored our duty to temporarily house nuclear waste as a byproduct of our Nation's defense at the Department of Energy's Hanford Nuclear Reservation.    Waste from Hanford accounts for approximately 63 percent of the defense-generated high-level waste projected for disposal at Yucca Mountain. I should point out that our near-term concern is in getting this waste out of failing underground single-shell tanks and into a glass form. But our long-term interest is in seeing that all this waste is properly disposed of in a deep geologic repository. That is what led us into litigation over the efforts to abandon Yucca Mountain in 2010.    The Federal Government's efforts to abandon Yucca Mountain have ignored and bypassed the careful process Congress set forth in the Nuclear Waste Policy Act for developing a national repository. Washington State has been clear in its legal arguments that if Yucca Mountain is determined to be technically unsuitable in the licensing process, it should not be built. But, absent that determination, the process Congress set forth in law for establishing the repository should be respected and upheld.    In passing the Nuclear Waste Policy Act, Congress recognized that accomplishing the long-term objective of a national repository requires a stepwise approach and a process cemented in law. The House bill report that accompanied the NWPA concluded that, ``The failure of government to provide a permanent waste disposal facility during more than 30 years of Federal nuclear activities is unmitigated.'' It criticized prior Federal agency competence in ``paper analyses and future plans'' as failing to provide ``adequate assurance that disposal facilities would be available when needed.''    It noted that two prior attempts to explore potential repository sites had already failed due to intense political pressure, and it noted what it called a solid consensus of special task force and Presidential commission recommendations on the need for legislation to ``solidify a program and keep it on track.'' In particular, the report noted ``it is necessary to provide close congressional control to assure that the political and programmatic errors of our past experience will not be repeated.'' If it is to stand any chance of success, the process for developing a repository has to necessarily stand and withstand changes to Federal and State administrations and the political tides that accompany them. If you are going to complete a process measured in decades, you cannot be continually second-guessing or switching course partway through, or you will never accomplish the objective.    The thing that keeps you on course is and must be the law. This is at the heart of the NWPA's stepwise prescriptive structure. Critically, Congress reserved for itself the ultimate decision of approving a potential repository site. In the case of Yucca Mountain, Congress exercised that authority when it rejected Nevada's disapproval of the site. And later, when the D.C. Circuit Court of Appeals rejected Nevada's legal challenge to that recommendation to Congress, the court said: Congress has settled the matter, and we no less than the parties are bound by its decision.    Once a repository site is approved under the NWPA, it triggers a mandate for the Department of Energy to submit a construction authorization application to the NRC and an obligation on the NRC to consider Energy's application and issue a final decision approving or disapproving issuance of a construction authorization. Energy disregarded these mandates in 2010. It attempted to withdraw from the licensing proceeding based not on any claim that Yucca Mountain is technically unsuitable but on ``the Secretary's judgment that Yucca Mountain is not a workable option'' and that ``alternatives will better serve the public interest.''    The NRC's Atomic Safety and Licensing Board agreed with our argument that the NWPA's plain language and legislative history did not permit the Secretary to withdraw the application. In the words of the board ``the NWPA does not give the Secretary the discretion to substitute his policy for the one established by Congress in the NWPA, that at this point mandates progress towards a merits decision by the Nuclear Regulatory Commission.'' Energy's application thus remains pending before the NRC today.    As the committee may know, the NRC Chair nevertheless then initiated his own orderly shutdown of the NRC's license review. The shutdown included terminating the NRC staff's technical review, blocking the release of Safety Evaluation Reports and shutting down the NRC's Web-based licensing support network, which was a database for all the documentation regarding the application. Despite having more than $11 million available in appropriated funds to continue with licensing proceedings, the NRC cited budgetary considerations for its actions, including the political prediction that Congress would not further fund its efforts. It took Washington State and its fellow petitioners bringing a mandamus action and the court issuing an order in August 2013 to reverse this unilateral dismantling.    In a clear, blunt order, the Federal Court concluded that the NRC `` has declined to continue the statutorily-mandated Yucca Mountain licensing process,'' and that ``as things stand, the Commission is simply flouting the law.'' It rejected the NRC's budgetary arguments and cited the bedrock principle of constitutional law that ``the President and Federal agencies may not ignore statutory mandates or prohibitions merely because of policy disagreement with Congress.''    Here is where that leaves us. The NRC has now completed and released its Safety Evaluation Reports. We have final legal decisions in place that establish the obligation of both Energy and the NRC to continue with the Yucca Mountain licensing process providing the funding is in place to proceed.    I understand there are those who think that Yucca Mountain is technically unsuitable, but the law provides an opportunity to prove that case in the pending NRC hearing. I also understand there are those who think that following the current scheme in the NWPA is unwise, but the method for pursuing that disagreement should be through changing the law, not disregarding it. Ultimately, given the multi-decade, multi- generational task of developing a nuclear waste repository, we will never have a repository, whether it is at Yucca Mountain or any other site, if the legal process for siting and licensing a repository is disregarded, either now or by those who follow us. Thank you and I will be happy to take any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. I appreciate it. I know you have traveled long distances and a lot, and I want to make sure you got your full statement in. But we are trying to keep quick.    I would now like to recognize Ms. Josephine Piccone, Director of Yucca Mountain Directorate from the Nuclear Regulatory Commission.    You are welcome, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Piccone</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Piccone. Thank you. Good morning, Chairman Shimkus, Ranking Member Tonko, and distinguished members of the subcommittee. I am Josephine Piccone, Director of the Nuclear Regulatory Commission's Yucca Mountain Directorate, which is responsible for leading the current review activities associated with the Yucca Mountain construction authorization application.    I appreciate the opportunity to appear before you today to discuss the NRC staff's completion of the Yucca Mountain Safety Evaluation Report. On November 18, 2013, the NRC Commission approved a memorandum and order setting a course of action for the Yucca Mountain licensing process, consistent with the Appeals Court decision on August 2013, and the resources available from previous unexpended appropriations to the NRC from the Nuclear Waste Fund. This course of action included the Commission directing the NRC staff to complete the Safety Evaluation Report. We completed the Safety Evaluation Report this past January within our cost estimate. I would like to acknowledge our talented review team of more than 40 agency experts in technical fields such as health physics, geology, seismology, hydrology, material sciences, structural engineering, and criticality safety, to name but a few. We also had an excellent legal staff providing valuable support and assistance from the NRC's federally funded research and development center, the Center for Nuclear Waste Regulatory Analyses, in San Antonio, Texas.    The Safety Evaluation Report documents the results of the staff's technical review of DOE's application. The NRC staff finds that DOE has met most, but not all, of the applicable regulatory requirements. Notably, the NRC staff finds that DOE's design and analysis of the proposed repository complies with the performance objectives and requirements both before and after the repository is closed.    These performance objectives and requirements, which are protective of public health and safety, include the requirements that the repository be composed of multiple barriers, requirements for the repository to meet certain radiation limits for individual protection and human intrusion, and separate standards for protection of groundwater. The staff also finds that DOE has addressed most of the general information, administrative, and programmatic requirements.    There are two specific requirements that DOE has not met that concern ownership of land and water rights. They are discussed in detail in Volume 4 of the Safety Evaluation Report. In addition, a supplement to DOE's environmental impact statement addressing groundwater issues has not been completed. Therefore, the NRC staff is not recommending issuance of a construction authorization at this time.    Publication of the Safety Evaluation Report is only one of several steps that need to occur before a decision can be made on the construction authorization application. A decision on whether to authorize construction can be made only after a supplement to DOE's Environmental Impact Statement has been prepared, a hearing has been conducted, and the Commission has completed its review of contested and uncontested issues. With regard to the first item, the Commission has directed the NRC staff to develop a supplement to DOE's Environmental Impact Statement covering certain groundwater issues.    The largest and most significant of the remaining steps to be completed before the Commission can reach a decision on whether to grant the construction authorization is the adjudicatory hearing, including consideration of approximately 300 pending contentions and any new or amended contentions. The NRC does not currently have sufficient remaining resources from the Nuclear Waste Fund to complete the hearing. Recently the Commission informed the Congress that it estimated that approximately $330 million would be needed for the NRC to complete the construction authorization proceeding.    This concludes my formal testimony on the NRC Safety Evaluation Report. I thank you for the opportunity to appear before you, and I look forward to continuing to work with you to advance NRC's important safety and security missions. I would be pleased to respond to questions you may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Next, we have the Honorable Greg R. White, Commissioner of Michigan Public Service Commission, on behalf of the National Association of Regulatory Utility Commissioners, Chairman of the Subcommittee on Nuclear Issues and Waste Disposal. He has appeared here numerous times.    You are recognized for 5 minutes, and thanks for coming.</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. White. Thank you very much, Chairman Shimkus, Ranking Member Tonko, and members of the subcommittee.    I want to thank you for this opportunity to testify on the status of the U.S. nuclear waste program. I am Greg White. I serve as commissioner on the Michigan Public Service Commission. I am testifying today on behalf of NARUC, National Association of Regulatory Utility Commissioners.    NARUC is a nonprofit organization. It has been around for over 125 years. Members are the public utility commissions in all 50 States and U.S. territories. We are State economic regulators, and we are responsible for ensuring the safe, reliable, and affordable delivery of essential electric utility service in every state. As a result, the success of this program is critical to the delivery of essential electric services.    I would like to raise a few points and then offer some comments in regards to what we think might be able to be done going forward. NARUC was at the table when the 1982 law was passed, and we agreed that it was appropriate for the consumers to pay for this program. The people who benefit from the generation of electricity from nuclear power plants appropriately should pay for it. And the consumers have paid. I would like to point out that the only milestone in the 1982 act that was ever on time was the signing of the contracts that began the collection of money from the consumers. Since then, more than $40 billion has been collected in direct payments and in interest that has accrued in the balance. The current status of the program, the same as it was in 1982; we don't have anything moving forward. The program is at a dead stop.    A couple of other points. I also serve as the chairman of an organization called the Nuclear Waste Strategy Coalition that was formed in 1993. It is a group of State commissions, utility, nuclear utilities, consumer advocates, local communities, and we were formed in 1993. I can tell you that, as somebody who was in the room in 1993, we didn't intend or ever expect that we would still be an organization working on this issue in 2015, some 22 years later.    We also proposed way back in 1994, the Nuclear Waste Strategy Coalition, the creation of a single-purpose entity, a public-private corporation chartered by the Congress to manage this program, removing it from the Department of Energy. That was in 1994. The proposal was rejected pretty much out of hand. The argument was by moving to that new entity, it could delay the progress on the program by up to a year.    We have been involved in several lawsuits, as you know. They have been explained by Mr. Fitz. Chairman Shimkus, I would like to point out one in particular, the suspension of the Nuclear Waste Fund, which we argued we needed to do. We considered that to be a bittersweet win. It was always our intention to pay for the program, to have the consumers pay for the program. But when there was no program after 2010, we could no longer continue to allow hundreds of millions of dollars to be collected from consumers into a fund that was paying for nothing.    So the Department of Energy has had some plans, I will say ``schemes,'' perhaps. The problem is, is that they really have no credibility. There is no budgets. There is no time frames, other than the proposal that was made in 2013 as a result of the Blue Ribbon Commission's recommendations suggested that the Department would make substantial progress towards a national repository by 2048, some 35 years from that date.    My suggestion is, we seem to have learned nothing in the previous 32 years that led up to that point.    So, in conclusion, NARUC has thoughtfully considered the country's viable options. And we think that to move forward on a nuclear waste program, that we have to see credible substantial progress toward achieving the goal. The first step is to complete the licensing review of the Yucca Mountain license application. We also believe that the Nuclear Waste Fund must be managed responsibly and used only for its intended purpose. The management of the Federal responsibilities for integrated-use fuel management would be more successful if it was assigned to a new organization, such as the charter of a new Federal corporation, suggested by the Nuclear Waste Strategy Coalition back in 1994. And, in addition, we believe that there is a need for consolidated interim storage although the amount, basis of need, and duration should be determined.    If implemented in the near term, these steps could create a solid foundation on which to build a viable spent nuclear program. I want to thank you for the opportunity to express my views, and I will be very pleased to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Next, we will recognize Mr. Stephen Kuczynski, chairman, president, and chief executive officer of the Southern Nuclear Operating Company.    You are recognized for 5 minutes, and welcome.</t>
   </si>
   <si>
-    <t>Kuczynski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kuczynski. Good morning, Chairman Shimkus, Ranking Member Tonko, and the members of the subcommittee. I also thank you for the opportunity to appear before you today. As stated, my name is Steve Kuczynski. I am the chairman, president, and CEO of the Southern Nuclear Operating Company. We have been in the nuclear power business for over 50 years. Today our fleet of six nuclear reactors at three sites, Plant Hatch and Plant Vogtle in Georgia, and Plant Farley in Alabama, provide approximately 20 percent of the electricity used in those States. We are also building two new state-of-the-art nuclear units at Plant Vogtle.    It is an honor for me to appear before the subcommittee to discuss nuclear waste policy in general. Essential to this discussion is, of course, the need for a permanent repository. It is critical that the Federal Government meet its contractual obligation to take title to the Nation's spent fuel inventory. It is appropriate for the subcommittee to explore ways to get the statutorily mandated spent nuclear fuel disposal program back on track. I look forward to discussing these and other issues with you today.    Let me begin with a brief discussion about our company's spent fuel program. Currently we have 2,300 fuel assemblies and spent fuel pools at Plant Farley, another 930 assemblies in dry casks. At Plant Hatch, we have approximately 5,000 assemblies in the pools with 4,150 in dry casks. At Plant Vogtle, we have 2,600 assemblies in the pools and 480 in dry casks.    First thing I want to emphasize is that we have safe, reliable, onsite options to store spent fuel at our nuclear plants for the duration of our plant licenses and the expected life of the plants. Spent fuel pools and dry cask storage installations are regulated and approved by the NRC under very comprehensive safety, security, and environmental regulations. But these temporary measures should not be viewed as de facto permanent solutions to the spent fuel disposal issue.    Under both law and contract, disposal of spent fuel is an obligation of the Federal Government. My written testimony explains in some more detail how this came to be. I won't repeat that history here, other than to say that the Nuclear Waste Policy Act directed the Energy Secretary to enter into contracts with the Nation's nuclear utilities. Those contracts provided that, in return for payment of the fees into the Nuclear Waste Fund, the government will take title to nuclear powerplant owner spent fuel for permanent storage at the Nation's repository beginning in 1998.    Industry was effectively mandated to enter into these contracts. Under these contracts, Alabama Power has paid over $399 million into the Nuclear Waste Fund for Plant Farley, and Georgia Power has paid over $400 million for Plant Hatch and $445 million for plant Vogtle. Those are real dollars obtained from electricity customers in our States on the basis of spent fuel contracts with the Federal Government. 1998 came and went. Seventeen years later, the Federal Government still has not begun to perform its end of the contracts. My written testimony explains nuclear powerplant owners have been forced to make other onsite arrangements to store our spent fuel temporarily at great expense to our companies.    The industry has mitigated these losses to some degree by recovering monetary judgments from the Federal Government on the basis of partial breach of contract claims. These recoveries have been limited so far to the cost for storage facilities made necessary by the government's breach. The Government Accountability Office has estimated that, in total, across the industry, Federal Government's liability for breach of the spent fuel contracts will exceed $21 billion by 2071.    That is a brief summary of the current situation, but the news is not all negative. There is increasing confidence that the Nation's nuclear waste disposal program is getting back on track. With recent court rulings requiring further action on the Yucca license application and the NRC's recent reports finding Yucca Mountain to be safe. The Nation has come too far and invested too much to abandon the Yucca Mountain repository now.    In closing, I applaud the subcommittee for taking keen interest and tackling this complex and challenging problem. The good news, it is not an insurmountable issue. Indeed, from a technical, safety, financial, and legal perspective, the path forward is manageable and understood. In many respects, the key challenges are political and the domain of Congress to address.    Let me finish with three final thoughts for you to consider. First and number one, the Nation should move forward with the permanent repository at Yucca Mountain. I believe that is clear. Two, Congress should reform the funding mechanisms for these programs to ensure access to the Nuclear Waste Fund for appropriate uses. The key challenge has been the program relies on appropriations which has been subject to the ebbs and flows of politics. And, three, Congress needs to protect the investment of electricity customers around the country who have collectively paid billions of dollars to the Federal government to dispose of the Nation's spent fuel inventory.    Thank you, Chairman Shimkus, for allowing me to appear before you here today and the subcommittee. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you.    Next I would like to recognize Mr. Geoffrey Fettus, Senior Attorney from the Natural Resources Defense Council.    You are recognized for 5 minutes, and welcome.</t>
   </si>
   <si>
-    <t>Fettus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fettus. Thank you, Chairman Shimkus and Ranking Member Tonko, and distinguished members of the subcommittee for having me today and allowing me to provide the Natural Resources Defense Council's views on this matter.    Let me get right to two key issues at hand, the proposed Yucca Mountain repository and interim storage away from reactor sites. We are concerned Congress is on a trajectory to make two misguided decisions that run directly counter to the bipartisan set of recommendations found in President Obama's Blue Ribbon Commission for America's Nuclear Future.    First, with respect to Yucca--and I will note that Nevada is not here--it is clear some members believe the proposed Yucca site is a safe place to bury spent nuclear fuel and that the project can be revived now that Senator Reid is retiring. Reasonable people can disagree. Respectfully, those ideas are not accurate. Efforts to restart the failed process face an uphill climb of massive technical and institutional challenges, years of litigation, and a complete lack of meaningful State consent. Simply, Yucca Mountain leaks profusely. Licensing depends on, at this point, a fictional set of drip shields. And the State is joined across party lines to litigate the matter for as long as it takes.    This is on top of the history where, in an effort to preserve what turned out to be an unworkable site, in the mid-1980s, the Energy Department, they abandoned its technical siting guidelines used to select Yucca. In the early 2000s, EPA gerrymandered the site boundaries in an effort to ensure that radiation doses at the edge of the regulated area miles away would be acceptable. And then DOE proposed that hundreds of years into the future, the agency would spend billions more to introduce titanium drip shields to prevent the early corrosion of the waste containers.    Along the way, Congress worked on the site selection process by simply selecting Yucca and then demanding EPA's regulations be consistent with the views of the National Academy of Sciences. This effort subsequently backfired when a bipartisan panel of the D.C. Circuit unanimously found that EPA's rule was not, in fact, consistent with the views of the National Academy of Sciences.    Restarting the Yucca fight, respectfully, Mr. Chairman, is not the way to go nor is the right way to proceed with the current flurry of premature interim storage plants. Here Congress could be poised to delink interim storage of spent fuel from the requirement to first establish an acceptable final geologic site. Wise leaders with a history of reaching across the aisle, like Jeff Bingaman of New Mexico, who was the first and last to introduce potentially workable legislation consistent with the BRC recommendations warned against such tactics for decades. The American public and each of the States--and I think this is where we all agree--not just the industry that has the special deal of the Federal Government assuming its waste burden, has the right to expect a permanent, thoughtful solution to our nuclear waste dilemma. Simply expediting an interim storage site for Texas or for New Mexico or some other yet-to-be-named State, without doing the work of crafting a comprehensive bill that can finally get the repository program off the Yucca treadmill and back on track will most likely lead to double the transportation risks, even more extended above-ground storage of highly radioactive waste with no permanent disposal and deeply misguided efforts to shift that waste to Yucca or WIPP when the political stars, not the scientific stars, align. This approach passes the risk to future generations and is destined to arrive in the same quagmire we are sitting in now. It simply doesn't solve the problem.    Instead of proceeding in this fashion, in my written statement I have outlined an approach that NRDC believes is workable and can regain the widespread public and, most important, State support necessary. The elements of this approach are: One, recognized that repositories must remain the focus of any legislative effort; two, create a coherent legislative framework--and this is most important--before commencing any geologic repository or interim storage site development processes; three, arrive at a consent-based approach for nuclear waste storage via a fundamental change in law; four, address the storage or interim storage in a phased approach consistent with the careful architecture of former Senator Bingaman's S. 3469, which was introduced in 2012; and, five, exclude delaying, proliferation, driving, and polarizing closed fuel cycle and processing options from this effort.    This is one area where we certainly agree hopefully with every member of the subcommittee. The history of the Federal nuclear waste program has been dismal, but decades from now, others will face the precise predicament we find ourselves in today unless Congress revamps how nuclear waste is regulated and allows for meaningful State oversight. Otherwise, we are doomed to repeat this cycle until a future Congress gets it right.    Thank you again for this opportunity, and I am happy to answer any questions.</t>
   </si>
   <si>
-    <t>Ronningen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ronningen. Good morning. I am Einar Ronningen, manager of the Rancho Seco Nuclear Facilities for the Sacramento Municipal Utility District, known as SMUD. And I am here today on behalf of the Decommissioning Plant Coalition.    The DPC is comprised of companies whose sites have ceased all commercial nuclear-generating operations. Our members own 10 facilities in the States of California, Connecticut, Illinois, Maine, Massachusetts, Michigan, Vermont, and Wisconsin. We appreciate this opportunity to provide our perspective on the status of U.S. Nuclear waste management policy.    SMUD's Rancho Seco nuclear-generating station ceased commercial operation in 1989, but there remains an 11-acre independent spent fuel storage installation containing 22 dual-purpose cannisters licensed for the dry storage and transportation of used nuclear fuel and greater than Class C waste ultimately destined for disposal by the DOE. As is the case with other utilities, SMUD has successfully litigated a partial breach of contract claim against the DOE to recover the costs incurred in our management of this material. To date, SMUD has won judgments in the U.S. Court of Claims totalling $73 million. These damage awards have been paid by taxpayers out of a permanent appropriations account in the Treasury called the Judgment Fund. Industry-wide taxpayer liabilities for the government's failure to perform under the contracts in a timely manner are approaching $4.5 billion, and DOE estimates that its liability will reach almost $13 billion by 2020, increasing annually by $500 million per year if it does not find a way to begin satisfying its obligation by 2022.    From the outset, the DPC has been supportive of Yucca Mountain, and in the early years of our organization, we worked with Congress in urging DOE to prepare a sound license application, address the transportation infrastructure requirements, and otherwise take steps to prepare for the movement of this material from our sites on a priority basis.    Nonetheless and without repeating the oft-reported historical details, Mr. Chairman, let me just state the obvious. Although the spent fuel at all our utility sites is and will be safely managed for as long as it takes, right now U.S. nuclear waste management policy is broken.    The DPC sincerely appreciates the efforts you have made, Mr. Chairman, to reinvigorate the debate over the future of Yucca Mountain, and we were heartened by the finding of the NRC staff in their Safety Evaluation Report that the application demonstrates the ability of the site to meet all post-closure requirements of that agency. But we note that the staff also found that it could not yet recommend the issuance of a construction authorization due to several findings, including the lack of institutional control of the site and access to water rights necessary for the construction and operation of the facility, issues that will require the enactment of further legislation. The need for further legislation, the continued opposition by significant leaders in the State of Nevada, the dismantlement of the Office of Civilian Radioactive Waste Management at DOE, the technical licensing challenges filed by opponents of the project, and the track record of DOE in completing one-of-a-kind facilities on time and within budgets, combined with the level of financial resources that need to be appropriated by Congress in a constrained fiscal environment to license, construct, and operate the proposed repository, lead us to the uneasy conclusion that the uncertainties of when Yucca Mountain would be open are not likely to be overcome in timeframes that meet the equity interests of our host communities. It is because of our members' commitments to our host communities to resolve the current stalemate in U.S. nuclear waste policy as expeditiously as possible that we urge this committee to support the legislation that would not only take steps to get the Nation's geologic repository program back on track but also authorize the establishment of an voluntary incentive-based siting program that would lead to the licensing of a consolidated interim storage facility and to initiate a pilot program to remove the material from our sites on a priority basis.    We are pleased that two potential storage projects have been announced by capable private sector companies in the past four months. These could offer DOE the means to meets its contractual obligations.    Mr. Chairman, and members of the subcommittee, a pilot storage program that prioritizes the removal of material from permanently shutdown sites that is responsive to private sector initiatives, can be accomplished with reasonable support from the Nuclear Waste Fund without any impact on the repository program. The pilot would demonstrate the ability of the Federal Government to plan and execute their responsibilities for waste acceptance and transportation under the standard contract, relieve the taxpayer of the obligation to continue paying Judgment Fund damages, and allow these sites to be repurposed for useful purposes.    We applaud your steadfast interest in a vibrant repository program, and we urge you to look favorably on the passage of legislation establishing a consolidated interim storage program that takes advantage of these new opportunities to remove used fuel and greater than Class C waste from those facilities where commercial reactor operations have permanently ceased.    Thank you for the opportunity, and we look forward to questions you may have.</t>
   </si>
   <si>
@@ -271,9 +241,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    And thanks to each of you for being here and making this effort on such an important issue.    Mr. Fitz, if I could talk to you for a moment, the Department of Energy recently announced its intention to initiate a new permanent repository program for nuclear material generated from National defense activities. As you are aware, Washington State holds about two-thirds of all defense material at the Hanford site. Did DOE consult with the State of Washington prior to making this announcement?</t>
   </si>
   <si>
@@ -349,9 +316,6 @@
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much for yielding back.    The chair now recognizes the gentleman from Kentucky, Mr. Whitfield, for 5 minutes.</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you very much, Mr. Chairman.    And thank you all for joining us today.    Mr. Kuczynski, when I go to the [inaudible] Talk about nuclear waste. And we talk about the almost $20 trillion of Federal debt that we are approaching in this country. And, in 1982 I think, Congress passed the Nuclear Waste Policy Act. And I think in 1987, Congress identified Yucca Mountain----</t>
   </si>
   <si>
@@ -377,9 +341,6 @@
   </si>
   <si>
     <t>400160</t>
-  </si>
-  <si>
-    <t>Gene Green</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. I think I can probably talk without it.</t>
@@ -832,11 +793,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -856,13 +815,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -884,11 +841,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -908,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -934,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -962,11 +913,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -986,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1014,11 +961,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1038,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1066,11 +1009,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1090,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1118,11 +1057,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1142,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1170,11 +1105,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1194,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1220,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1246,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1274,11 +1201,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1298,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1326,11 +1249,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1350,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1378,11 +1297,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1402,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1430,11 +1345,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1454,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1482,11 +1393,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1506,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1534,11 +1441,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1558,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1586,11 +1489,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1610,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1638,11 +1537,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1662,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1690,11 +1585,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1714,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1742,11 +1633,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1766,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1794,11 +1681,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1818,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1846,11 +1729,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1870,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1898,11 +1777,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1922,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1948,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1974,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2000,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2026,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2052,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2078,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2104,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2130,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2156,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2182,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2208,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2234,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2260,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2286,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2314,11 +2161,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2338,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2364,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2390,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2416,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2442,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2468,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2494,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2520,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2546,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2574,11 +2401,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2598,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2626,11 +2449,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2650,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2676,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2702,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2728,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2754,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>40</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2780,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2806,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>40</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2832,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2858,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2884,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2910,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2936,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2964,11 +2761,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2988,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3016,11 +2809,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3040,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3066,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3092,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3118,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3144,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3172,11 +2953,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3196,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>120</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3224,11 +3001,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3248,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3274,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3300,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3326,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3352,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3378,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3404,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
-      </c>
-      <c r="G101" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3430,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3456,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
-      </c>
-      <c r="G103" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3482,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3508,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
-      </c>
-      <c r="G105" t="s">
+        <v>108</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>121</v>
-      </c>
-      <c r="H105" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3534,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3560,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>120</v>
-      </c>
-      <c r="G107" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3586,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3612,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" t="s">
-        <v>121</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3640,11 +3385,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96988.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96988.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. It is 9:00. We want to start promptly. There is going to be votes sometime early this morning, and we want to get the opening statements through and encourage members to get back afterwards to follow up with questions. I will recognize myself for 5 minutes for an opening statement.    Thank you all for coming to this morning's hearing to receive an update on the status of and outlook for progress on America's nuclear waste management policy. Let me state at the outset that issue of the Nation's nuclear waste management policy is not a partisan issue. The House of Representatives has repeatedly supported Yucca Mountain in an overwhelming and bipartisan manner. Last summer, efforts to abandoned Yucca Mountain were defeated on the House floor with the body voting 4 to 1 in favor of Yucca Mountain. This includes nearly two-thirds of the Chamber's Democrats.    In April, I once again led a bipartisan group of members to see Yucca Mountain site firsthand. The site is an invaluable national asset isolated in the Nevada desert, removed from all population centers, and co-located with the Nevada National Security Site.    Since my previous visit in 2011, the landscape has notably advanced to support the development of a permanent repository. In 2013, the D.C. Court of Appeals ruled that Nuclear Regulatory Commission must continue its review of the Yucca Mountain license application. The court issued a writ of mandamus, a very consequential legal action, and declared it was illegal for the NRC to stop consideration of the license. As a result of this decision, the NRC resumed the scientific and technical evaluation of the license known as the Safety and Evaluation Report, or SER. The SER looked at a plethora of potential natural and manmade scenarios which could affect the performance of the facility. In January of this year, the NRC released the fifth and final volume of the SER. The NRC staff determined the facility could meet all safety regulations including that it could safely serve as a repository for up to a million years. Meanwhile, the costs of inaction and delay continue to mount. The courts ruled the Department of Energy's dismantling of the Yucca Mountain project no longer constitute a permanent disposal program. Therefore, the Federal Government could no longer collect the nuclear waste fee, a surcharge paid by consumers of nuclear-generated electricity.    While the fee is no longer being actively collected, the Treasury Department still maintains a balance of nearly $33 billion in ratepayer money to license, construct, and operate Yucca Mountain. But it isn't just ratepayers who are paying for the consequences of the delay. All American taxpayers, regardless of whether they benefit from commercial nuclear power, are footing the legal bill, and the bill isn't cheap. Last year, the Department of Justice account that pays damages on behalf of the Federal Government, known as the Judgment Fund, paid out over $900 million in settlements as a consequence of our inability to move forward with Yucca. This accounted for nearly a third of all Federal Government legal fees.    We in the Federal Government have an obligation to uphold the law, to dispose of commercial spent nuclear fuel, as well as honor the commitment made to states who host sites to support our nuclear defense activities, including South Carolina, Idaho, and Washington State. Congress needs a willing partner to host a nuclear disposal facility as we currently have with the sites that contributed to the Manhattan Project. I am committed to working with the State and local stakeholders in Nevada, who will engage in a constructive conversation to resolve the current impasse.    Just saying no is not an option. As part of this process, we will look for areas of agreement such as facilitating a benefits package for communities to provide long-term budget stability, strengthen the State's education fund, and identify associated transportation infrastructure benefits. As a host state of a Nevada National Security Site, however, Nevada already is a constructive partner with the Federal Government to protect our National interests. This, by the way, includes storing radioactive waste onsite today.    I look forward to hearing from a broad group of stakeholders today who will highlight the need to finish a repository, as the House Representative supports, as the courts direct, and as the American people deserve.    Thank you, and I now recognize the ranking member, Mr. Tonko, for his opening statement.</t>
   </si>
   <si>
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair. We are here this morning to hear from a fine panel of witnesses about the current state of nuclear waste policy. There are some things that I do not expect will have changed much from the time of our last hearing on this issue. Nuclear facilities across the country continue to generate waste that has yet to be secured in a long-term storage facility. Research and development on waste technologies continues. The law designating a storage facility is unchanged, and today we add to the many oversight hearings the subcommittee has held over the years.    But we still have no real solution, even an interim one, to offer to the witnesses at the table today and the constituencies that they do, indeed, represent. There have been reports by the National Academy of Sciences, the Government Accountability Office, industry and nongovernmental groups, and the President's Blue Ribbon Commission. Ironically, we have a long-term storage facility, and yet we do not. And we do not have interim storage facilities or a policy of establishing them, and yet we do. Essentially the storage facilities at each of the powerplant sites around the country now serve as de facto interim storage facilities.    We need a solution to this situation. It will not be easy, and it will be expensive. But the alternative is also expensive and provides less safety, less security than a functioning, ordered process for dealing with spent fuel. And Mr. Fitz reminds us that we also have to deal with legacy waste from our defense programs.    I know the chair and others on this committee are resolved to complete the process of opening the Yucca Mountain facility, but the Yucca Mountain facility is not open at this time, and it does not appear it will be open in the near future. In the meantime, spent fuel continues to accumulate, and penalty fees continue to accrue. I continue to believe that it is worth examining additional options for dealing with this waste.    The administration's strategy, based on the work done by the Blue Ribbon Commission in 2012, has challenges and unknowns. Should we pursue a system that includes both interim and long-term storage of waste? If so, how do we proceed? If there are to be interim sites, how many will be needed? How much waste can or should be stored at them, and what time period qualifies as interim? What are the costs, and can we access the necessary funds to the fund established to deal with this problem?    I do not expect to hear definitive answers to these questions this morning, but I do think it is time that we examined all options for moving forward. I think the future for nuclear power is in question if we do not find a way to deal with this issue.    I want to thank all of our witnesses for appearing before the subcommittee today. I look forward to your testimony and to your suggestions on options to move forward on what is a very critical and important issue.    And, with that, Mr. Chair, I yield back.</t>
   </si>
   <si>
@@ -67,12 +82,24 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I want to thank you and Ranking Member Tonko for holding this hearing today.    Much has changed since the Nuclear Waste Policy Act became law in 1982, which allowed the Secretary of Energy to remove spent nuclear fuel from commercial nuclear power plants in exchange for fees and transported to a permanent geological repository. But I think the past three decades of the nuclear waste program might be best summed up this way: Lots of change but very little progress.    Unfortunately, the one thing that seems most resistant to change is the program's ongoing failure to the ratepayers, who have paid into the fund. That failure also applies to the taxpayers, who are now having to pay damages through the Judgment Fund administered by DOJ. In New Jersey, we have several operating nuclear reactors that provide carbon-free electricity, and this includes Oyster Creek, the Nation's oldest operating plant, which will soon stop providing power but will continue to provide a home to spent nuclear fuel long into the future unless we can come together on a plan to fix this program.    My point is this: I am not interested in litigating the wisdom of the administration's actions with regard to Yucca Mountain because that won't help move waste out of New Jersey, Illinois, New York, Michigan, or anywhere else anytime soon. I am, however, interested in making progress, and I hope this committee will put the ratepayer and taxpayer first and focus on efforts that can be enacted into law and that will move us forward over the next few years. I am encouraged by recent developments on potential consensus sites for interim storage in Texas and New Mexico, and we should look closely at the prospects they offer. That in no way means we should curtail our push for a permanent repository, but I do believe the best path forward is to work to identify steps we can take now to set the stage for real reform on permanent disposal in the future, regardless of where the disposal facility ends up being sited.    Again, thank you for holding this hearing. I look forward to hearing from our witnesses and working with all my colleagues, stakeholders, and the administration to put our Nation's nuclear waste program back on track.    And I would yield the balance of my time to the gentleman from California, Mr. McNerney.</t>
   </si>
   <si>
     <t>412189</t>
   </si>
   <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNerney. I want to thank the ranking member, and I thank the chairman of the subcommittee for his work on this issue. Managing nuclear waste is an engineering and a political problem. Based on the work I did as a graduate student for the Nuclear Engineering Department at the University of New Mexico, I believe the engineering problem can be solved safely and satisfactorily.    Experience has shown that in order to find a location with the support of the local community, we are going to need complete transparency and the involvement of the local community in order to be accepted by the local community.    More than $10 billion has been spent on the Yucca Mountain project, and that money may be wasted because there wasn't the transparency and local involvement that would be required. The current situation we have invites a Fukushima-style disaster to happen in this country because there is so much waste stored in so various locations as we will hear near the Columbia River and other places. So are we going to need a solution? I thank the chairman for his work, and I think we need to work together in a bipartisan way to find a way forward, Mr. Chairman.    And, again, I yield back.</t>
   </si>
   <si>
@@ -82,33 +109,51 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Fitz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fitz. There we go. On behalf of the State of Washington, Office of the Attorney General, I appreciate the opportunity to be here before you today. Washington State has a keen interest in the development of a permanent repository for high-level radioactive waste and spent nuclear fuel. For nearly eight decades, we have honored our duty to temporarily house nuclear waste as a byproduct of our Nation's defense at the Department of Energy's Hanford Nuclear Reservation.    Waste from Hanford accounts for approximately 63 percent of the defense-generated high-level waste projected for disposal at Yucca Mountain. I should point out that our near-term concern is in getting this waste out of failing underground single-shell tanks and into a glass form. But our long-term interest is in seeing that all this waste is properly disposed of in a deep geologic repository. That is what led us into litigation over the efforts to abandon Yucca Mountain in 2010.    The Federal Government's efforts to abandon Yucca Mountain have ignored and bypassed the careful process Congress set forth in the Nuclear Waste Policy Act for developing a national repository. Washington State has been clear in its legal arguments that if Yucca Mountain is determined to be technically unsuitable in the licensing process, it should not be built. But, absent that determination, the process Congress set forth in law for establishing the repository should be respected and upheld.    In passing the Nuclear Waste Policy Act, Congress recognized that accomplishing the long-term objective of a national repository requires a stepwise approach and a process cemented in law. The House bill report that accompanied the NWPA concluded that, ``The failure of government to provide a permanent waste disposal facility during more than 30 years of Federal nuclear activities is unmitigated.'' It criticized prior Federal agency competence in ``paper analyses and future plans'' as failing to provide ``adequate assurance that disposal facilities would be available when needed.''    It noted that two prior attempts to explore potential repository sites had already failed due to intense political pressure, and it noted what it called a solid consensus of special task force and Presidential commission recommendations on the need for legislation to ``solidify a program and keep it on track.'' In particular, the report noted ``it is necessary to provide close congressional control to assure that the political and programmatic errors of our past experience will not be repeated.'' If it is to stand any chance of success, the process for developing a repository has to necessarily stand and withstand changes to Federal and State administrations and the political tides that accompany them. If you are going to complete a process measured in decades, you cannot be continually second-guessing or switching course partway through, or you will never accomplish the objective.    The thing that keeps you on course is and must be the law. This is at the heart of the NWPA's stepwise prescriptive structure. Critically, Congress reserved for itself the ultimate decision of approving a potential repository site. In the case of Yucca Mountain, Congress exercised that authority when it rejected Nevada's disapproval of the site. And later, when the D.C. Circuit Court of Appeals rejected Nevada's legal challenge to that recommendation to Congress, the court said: Congress has settled the matter, and we no less than the parties are bound by its decision.    Once a repository site is approved under the NWPA, it triggers a mandate for the Department of Energy to submit a construction authorization application to the NRC and an obligation on the NRC to consider Energy's application and issue a final decision approving or disapproving issuance of a construction authorization. Energy disregarded these mandates in 2010. It attempted to withdraw from the licensing proceeding based not on any claim that Yucca Mountain is technically unsuitable but on ``the Secretary's judgment that Yucca Mountain is not a workable option'' and that ``alternatives will better serve the public interest.''    The NRC's Atomic Safety and Licensing Board agreed with our argument that the NWPA's plain language and legislative history did not permit the Secretary to withdraw the application. In the words of the board ``the NWPA does not give the Secretary the discretion to substitute his policy for the one established by Congress in the NWPA, that at this point mandates progress towards a merits decision by the Nuclear Regulatory Commission.'' Energy's application thus remains pending before the NRC today.    As the committee may know, the NRC Chair nevertheless then initiated his own orderly shutdown of the NRC's license review. The shutdown included terminating the NRC staff's technical review, blocking the release of Safety Evaluation Reports and shutting down the NRC's Web-based licensing support network, which was a database for all the documentation regarding the application. Despite having more than $11 million available in appropriated funds to continue with licensing proceedings, the NRC cited budgetary considerations for its actions, including the political prediction that Congress would not further fund its efforts. It took Washington State and its fellow petitioners bringing a mandamus action and the court issuing an order in August 2013 to reverse this unilateral dismantling.    In a clear, blunt order, the Federal Court concluded that the NRC `` has declined to continue the statutorily-mandated Yucca Mountain licensing process,'' and that ``as things stand, the Commission is simply flouting the law.'' It rejected the NRC's budgetary arguments and cited the bedrock principle of constitutional law that ``the President and Federal agencies may not ignore statutory mandates or prohibitions merely because of policy disagreement with Congress.''    Here is where that leaves us. The NRC has now completed and released its Safety Evaluation Reports. We have final legal decisions in place that establish the obligation of both Energy and the NRC to continue with the Yucca Mountain licensing process providing the funding is in place to proceed.    I understand there are those who think that Yucca Mountain is technically unsuitable, but the law provides an opportunity to prove that case in the pending NRC hearing. I also understand there are those who think that following the current scheme in the NWPA is unwise, but the method for pursuing that disagreement should be through changing the law, not disregarding it. Ultimately, given the multi-decade, multi- generational task of developing a nuclear waste repository, we will never have a repository, whether it is at Yucca Mountain or any other site, if the legal process for siting and licensing a repository is disregarded, either now or by those who follow us. Thank you and I will be happy to take any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. I appreciate it. I know you have traveled long distances and a lot, and I want to make sure you got your full statement in. But we are trying to keep quick.    I would now like to recognize Ms. Josephine Piccone, Director of Yucca Mountain Directorate from the Nuclear Regulatory Commission.    You are welcome, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Piccone</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Piccone. Thank you. Good morning, Chairman Shimkus, Ranking Member Tonko, and distinguished members of the subcommittee. I am Josephine Piccone, Director of the Nuclear Regulatory Commission's Yucca Mountain Directorate, which is responsible for leading the current review activities associated with the Yucca Mountain construction authorization application.    I appreciate the opportunity to appear before you today to discuss the NRC staff's completion of the Yucca Mountain Safety Evaluation Report. On November 18, 2013, the NRC Commission approved a memorandum and order setting a course of action for the Yucca Mountain licensing process, consistent with the Appeals Court decision on August 2013, and the resources available from previous unexpended appropriations to the NRC from the Nuclear Waste Fund. This course of action included the Commission directing the NRC staff to complete the Safety Evaluation Report. We completed the Safety Evaluation Report this past January within our cost estimate. I would like to acknowledge our talented review team of more than 40 agency experts in technical fields such as health physics, geology, seismology, hydrology, material sciences, structural engineering, and criticality safety, to name but a few. We also had an excellent legal staff providing valuable support and assistance from the NRC's federally funded research and development center, the Center for Nuclear Waste Regulatory Analyses, in San Antonio, Texas.    The Safety Evaluation Report documents the results of the staff's technical review of DOE's application. The NRC staff finds that DOE has met most, but not all, of the applicable regulatory requirements. Notably, the NRC staff finds that DOE's design and analysis of the proposed repository complies with the performance objectives and requirements both before and after the repository is closed.    These performance objectives and requirements, which are protective of public health and safety, include the requirements that the repository be composed of multiple barriers, requirements for the repository to meet certain radiation limits for individual protection and human intrusion, and separate standards for protection of groundwater. The staff also finds that DOE has addressed most of the general information, administrative, and programmatic requirements.    There are two specific requirements that DOE has not met that concern ownership of land and water rights. They are discussed in detail in Volume 4 of the Safety Evaluation Report. In addition, a supplement to DOE's environmental impact statement addressing groundwater issues has not been completed. Therefore, the NRC staff is not recommending issuance of a construction authorization at this time.    Publication of the Safety Evaluation Report is only one of several steps that need to occur before a decision can be made on the construction authorization application. A decision on whether to authorize construction can be made only after a supplement to DOE's Environmental Impact Statement has been prepared, a hearing has been conducted, and the Commission has completed its review of contested and uncontested issues. With regard to the first item, the Commission has directed the NRC staff to develop a supplement to DOE's Environmental Impact Statement covering certain groundwater issues.    The largest and most significant of the remaining steps to be completed before the Commission can reach a decision on whether to grant the construction authorization is the adjudicatory hearing, including consideration of approximately 300 pending contentions and any new or amended contentions. The NRC does not currently have sufficient remaining resources from the Nuclear Waste Fund to complete the hearing. Recently the Commission informed the Congress that it estimated that approximately $330 million would be needed for the NRC to complete the construction authorization proceeding.    This concludes my formal testimony on the NRC Safety Evaluation Report. I thank you for the opportunity to appear before you, and I look forward to continuing to work with you to advance NRC's important safety and security missions. I would be pleased to respond to questions you may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Next, we have the Honorable Greg R. White, Commissioner of Michigan Public Service Commission, on behalf of the National Association of Regulatory Utility Commissioners, Chairman of the Subcommittee on Nuclear Issues and Waste Disposal. He has appeared here numerous times.    You are recognized for 5 minutes, and thanks for coming.</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. White. Thank you very much, Chairman Shimkus, Ranking Member Tonko, and members of the subcommittee.    I want to thank you for this opportunity to testify on the status of the U.S. nuclear waste program. I am Greg White. I serve as commissioner on the Michigan Public Service Commission. I am testifying today on behalf of NARUC, National Association of Regulatory Utility Commissioners.    NARUC is a nonprofit organization. It has been around for over 125 years. Members are the public utility commissions in all 50 States and U.S. territories. We are State economic regulators, and we are responsible for ensuring the safe, reliable, and affordable delivery of essential electric utility service in every state. As a result, the success of this program is critical to the delivery of essential electric services.    I would like to raise a few points and then offer some comments in regards to what we think might be able to be done going forward. NARUC was at the table when the 1982 law was passed, and we agreed that it was appropriate for the consumers to pay for this program. The people who benefit from the generation of electricity from nuclear power plants appropriately should pay for it. And the consumers have paid. I would like to point out that the only milestone in the 1982 act that was ever on time was the signing of the contracts that began the collection of money from the consumers. Since then, more than $40 billion has been collected in direct payments and in interest that has accrued in the balance. The current status of the program, the same as it was in 1982; we don't have anything moving forward. The program is at a dead stop.    A couple of other points. I also serve as the chairman of an organization called the Nuclear Waste Strategy Coalition that was formed in 1993. It is a group of State commissions, utility, nuclear utilities, consumer advocates, local communities, and we were formed in 1993. I can tell you that, as somebody who was in the room in 1993, we didn't intend or ever expect that we would still be an organization working on this issue in 2015, some 22 years later.    We also proposed way back in 1994, the Nuclear Waste Strategy Coalition, the creation of a single-purpose entity, a public-private corporation chartered by the Congress to manage this program, removing it from the Department of Energy. That was in 1994. The proposal was rejected pretty much out of hand. The argument was by moving to that new entity, it could delay the progress on the program by up to a year.    We have been involved in several lawsuits, as you know. They have been explained by Mr. Fitz. Chairman Shimkus, I would like to point out one in particular, the suspension of the Nuclear Waste Fund, which we argued we needed to do. We considered that to be a bittersweet win. It was always our intention to pay for the program, to have the consumers pay for the program. But when there was no program after 2010, we could no longer continue to allow hundreds of millions of dollars to be collected from consumers into a fund that was paying for nothing.    So the Department of Energy has had some plans, I will say ``schemes,'' perhaps. The problem is, is that they really have no credibility. There is no budgets. There is no time frames, other than the proposal that was made in 2013 as a result of the Blue Ribbon Commission's recommendations suggested that the Department would make substantial progress towards a national repository by 2048, some 35 years from that date.    My suggestion is, we seem to have learned nothing in the previous 32 years that led up to that point.    So, in conclusion, NARUC has thoughtfully considered the country's viable options. And we think that to move forward on a nuclear waste program, that we have to see credible substantial progress toward achieving the goal. The first step is to complete the licensing review of the Yucca Mountain license application. We also believe that the Nuclear Waste Fund must be managed responsibly and used only for its intended purpose. The management of the Federal responsibilities for integrated-use fuel management would be more successful if it was assigned to a new organization, such as the charter of a new Federal corporation, suggested by the Nuclear Waste Strategy Coalition back in 1994. And, in addition, we believe that there is a need for consolidated interim storage although the amount, basis of need, and duration should be determined.    If implemented in the near term, these steps could create a solid foundation on which to build a viable spent nuclear program. I want to thank you for the opportunity to express my views, and I will be very pleased to take questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Next, we will recognize Mr. Stephen Kuczynski, chairman, president, and chief executive officer of the Southern Nuclear Operating Company.    You are recognized for 5 minutes, and welcome.</t>
   </si>
   <si>
+    <t>Kuczynski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kuczynski. Good morning, Chairman Shimkus, Ranking Member Tonko, and the members of the subcommittee. I also thank you for the opportunity to appear before you today. As stated, my name is Steve Kuczynski. I am the chairman, president, and CEO of the Southern Nuclear Operating Company. We have been in the nuclear power business for over 50 years. Today our fleet of six nuclear reactors at three sites, Plant Hatch and Plant Vogtle in Georgia, and Plant Farley in Alabama, provide approximately 20 percent of the electricity used in those States. We are also building two new state-of-the-art nuclear units at Plant Vogtle.    It is an honor for me to appear before the subcommittee to discuss nuclear waste policy in general. Essential to this discussion is, of course, the need for a permanent repository. It is critical that the Federal Government meet its contractual obligation to take title to the Nation's spent fuel inventory. It is appropriate for the subcommittee to explore ways to get the statutorily mandated spent nuclear fuel disposal program back on track. I look forward to discussing these and other issues with you today.    Let me begin with a brief discussion about our company's spent fuel program. Currently we have 2,300 fuel assemblies and spent fuel pools at Plant Farley, another 930 assemblies in dry casks. At Plant Hatch, we have approximately 5,000 assemblies in the pools with 4,150 in dry casks. At Plant Vogtle, we have 2,600 assemblies in the pools and 480 in dry casks.    First thing I want to emphasize is that we have safe, reliable, onsite options to store spent fuel at our nuclear plants for the duration of our plant licenses and the expected life of the plants. Spent fuel pools and dry cask storage installations are regulated and approved by the NRC under very comprehensive safety, security, and environmental regulations. But these temporary measures should not be viewed as de facto permanent solutions to the spent fuel disposal issue.    Under both law and contract, disposal of spent fuel is an obligation of the Federal Government. My written testimony explains in some more detail how this came to be. I won't repeat that history here, other than to say that the Nuclear Waste Policy Act directed the Energy Secretary to enter into contracts with the Nation's nuclear utilities. Those contracts provided that, in return for payment of the fees into the Nuclear Waste Fund, the government will take title to nuclear powerplant owner spent fuel for permanent storage at the Nation's repository beginning in 1998.    Industry was effectively mandated to enter into these contracts. Under these contracts, Alabama Power has paid over $399 million into the Nuclear Waste Fund for Plant Farley, and Georgia Power has paid over $400 million for Plant Hatch and $445 million for plant Vogtle. Those are real dollars obtained from electricity customers in our States on the basis of spent fuel contracts with the Federal Government. 1998 came and went. Seventeen years later, the Federal Government still has not begun to perform its end of the contracts. My written testimony explains nuclear powerplant owners have been forced to make other onsite arrangements to store our spent fuel temporarily at great expense to our companies.    The industry has mitigated these losses to some degree by recovering monetary judgments from the Federal Government on the basis of partial breach of contract claims. These recoveries have been limited so far to the cost for storage facilities made necessary by the government's breach. The Government Accountability Office has estimated that, in total, across the industry, Federal Government's liability for breach of the spent fuel contracts will exceed $21 billion by 2071.    That is a brief summary of the current situation, but the news is not all negative. There is increasing confidence that the Nation's nuclear waste disposal program is getting back on track. With recent court rulings requiring further action on the Yucca license application and the NRC's recent reports finding Yucca Mountain to be safe. The Nation has come too far and invested too much to abandon the Yucca Mountain repository now.    In closing, I applaud the subcommittee for taking keen interest and tackling this complex and challenging problem. The good news, it is not an insurmountable issue. Indeed, from a technical, safety, financial, and legal perspective, the path forward is manageable and understood. In many respects, the key challenges are political and the domain of Congress to address.    Let me finish with three final thoughts for you to consider. First and number one, the Nation should move forward with the permanent repository at Yucca Mountain. I believe that is clear. Two, Congress should reform the funding mechanisms for these programs to ensure access to the Nuclear Waste Fund for appropriate uses. The key challenge has been the program relies on appropriations which has been subject to the ebbs and flows of politics. And, three, Congress needs to protect the investment of electricity customers around the country who have collectively paid billions of dollars to the Federal government to dispose of the Nation's spent fuel inventory.    Thank you, Chairman Shimkus, for allowing me to appear before you here today and the subcommittee. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you.    Next I would like to recognize Mr. Geoffrey Fettus, Senior Attorney from the Natural Resources Defense Council.    You are recognized for 5 minutes, and welcome.</t>
   </si>
   <si>
+    <t>Fettus</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fettus. Thank you, Chairman Shimkus and Ranking Member Tonko, and distinguished members of the subcommittee for having me today and allowing me to provide the Natural Resources Defense Council's views on this matter.    Let me get right to two key issues at hand, the proposed Yucca Mountain repository and interim storage away from reactor sites. We are concerned Congress is on a trajectory to make two misguided decisions that run directly counter to the bipartisan set of recommendations found in President Obama's Blue Ribbon Commission for America's Nuclear Future.    First, with respect to Yucca--and I will note that Nevada is not here--it is clear some members believe the proposed Yucca site is a safe place to bury spent nuclear fuel and that the project can be revived now that Senator Reid is retiring. Reasonable people can disagree. Respectfully, those ideas are not accurate. Efforts to restart the failed process face an uphill climb of massive technical and institutional challenges, years of litigation, and a complete lack of meaningful State consent. Simply, Yucca Mountain leaks profusely. Licensing depends on, at this point, a fictional set of drip shields. And the State is joined across party lines to litigate the matter for as long as it takes.    This is on top of the history where, in an effort to preserve what turned out to be an unworkable site, in the mid-1980s, the Energy Department, they abandoned its technical siting guidelines used to select Yucca. In the early 2000s, EPA gerrymandered the site boundaries in an effort to ensure that radiation doses at the edge of the regulated area miles away would be acceptable. And then DOE proposed that hundreds of years into the future, the agency would spend billions more to introduce titanium drip shields to prevent the early corrosion of the waste containers.    Along the way, Congress worked on the site selection process by simply selecting Yucca and then demanding EPA's regulations be consistent with the views of the National Academy of Sciences. This effort subsequently backfired when a bipartisan panel of the D.C. Circuit unanimously found that EPA's rule was not, in fact, consistent with the views of the National Academy of Sciences.    Restarting the Yucca fight, respectfully, Mr. Chairman, is not the way to go nor is the right way to proceed with the current flurry of premature interim storage plants. Here Congress could be poised to delink interim storage of spent fuel from the requirement to first establish an acceptable final geologic site. Wise leaders with a history of reaching across the aisle, like Jeff Bingaman of New Mexico, who was the first and last to introduce potentially workable legislation consistent with the BRC recommendations warned against such tactics for decades. The American public and each of the States--and I think this is where we all agree--not just the industry that has the special deal of the Federal Government assuming its waste burden, has the right to expect a permanent, thoughtful solution to our nuclear waste dilemma. Simply expediting an interim storage site for Texas or for New Mexico or some other yet-to-be-named State, without doing the work of crafting a comprehensive bill that can finally get the repository program off the Yucca treadmill and back on track will most likely lead to double the transportation risks, even more extended above-ground storage of highly radioactive waste with no permanent disposal and deeply misguided efforts to shift that waste to Yucca or WIPP when the political stars, not the scientific stars, align. This approach passes the risk to future generations and is destined to arrive in the same quagmire we are sitting in now. It simply doesn't solve the problem.    Instead of proceeding in this fashion, in my written statement I have outlined an approach that NRDC believes is workable and can regain the widespread public and, most important, State support necessary. The elements of this approach are: One, recognized that repositories must remain the focus of any legislative effort; two, create a coherent legislative framework--and this is most important--before commencing any geologic repository or interim storage site development processes; three, arrive at a consent-based approach for nuclear waste storage via a fundamental change in law; four, address the storage or interim storage in a phased approach consistent with the careful architecture of former Senator Bingaman's S. 3469, which was introduced in 2012; and, five, exclude delaying, proliferation, driving, and polarizing closed fuel cycle and processing options from this effort.    This is one area where we certainly agree hopefully with every member of the subcommittee. The history of the Federal nuclear waste program has been dismal, but decades from now, others will face the precise predicament we find ourselves in today unless Congress revamps how nuclear waste is regulated and allows for meaningful State oversight. Otherwise, we are doomed to repeat this cycle until a future Congress gets it right.    Thank you again for this opportunity, and I am happy to answer any questions.</t>
   </si>
   <si>
+    <t>Ronningen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ronningen. Good morning. I am Einar Ronningen, manager of the Rancho Seco Nuclear Facilities for the Sacramento Municipal Utility District, known as SMUD. And I am here today on behalf of the Decommissioning Plant Coalition.    The DPC is comprised of companies whose sites have ceased all commercial nuclear-generating operations. Our members own 10 facilities in the States of California, Connecticut, Illinois, Maine, Massachusetts, Michigan, Vermont, and Wisconsin. We appreciate this opportunity to provide our perspective on the status of U.S. Nuclear waste management policy.    SMUD's Rancho Seco nuclear-generating station ceased commercial operation in 1989, but there remains an 11-acre independent spent fuel storage installation containing 22 dual-purpose cannisters licensed for the dry storage and transportation of used nuclear fuel and greater than Class C waste ultimately destined for disposal by the DOE. As is the case with other utilities, SMUD has successfully litigated a partial breach of contract claim against the DOE to recover the costs incurred in our management of this material. To date, SMUD has won judgments in the U.S. Court of Claims totalling $73 million. These damage awards have been paid by taxpayers out of a permanent appropriations account in the Treasury called the Judgment Fund. Industry-wide taxpayer liabilities for the government's failure to perform under the contracts in a timely manner are approaching $4.5 billion, and DOE estimates that its liability will reach almost $13 billion by 2020, increasing annually by $500 million per year if it does not find a way to begin satisfying its obligation by 2022.    From the outset, the DPC has been supportive of Yucca Mountain, and in the early years of our organization, we worked with Congress in urging DOE to prepare a sound license application, address the transportation infrastructure requirements, and otherwise take steps to prepare for the movement of this material from our sites on a priority basis.    Nonetheless and without repeating the oft-reported historical details, Mr. Chairman, let me just state the obvious. Although the spent fuel at all our utility sites is and will be safely managed for as long as it takes, right now U.S. nuclear waste management policy is broken.    The DPC sincerely appreciates the efforts you have made, Mr. Chairman, to reinvigorate the debate over the future of Yucca Mountain, and we were heartened by the finding of the NRC staff in their Safety Evaluation Report that the application demonstrates the ability of the site to meet all post-closure requirements of that agency. But we note that the staff also found that it could not yet recommend the issuance of a construction authorization due to several findings, including the lack of institutional control of the site and access to water rights necessary for the construction and operation of the facility, issues that will require the enactment of further legislation. The need for further legislation, the continued opposition by significant leaders in the State of Nevada, the dismantlement of the Office of Civilian Radioactive Waste Management at DOE, the technical licensing challenges filed by opponents of the project, and the track record of DOE in completing one-of-a-kind facilities on time and within budgets, combined with the level of financial resources that need to be appropriated by Congress in a constrained fiscal environment to license, construct, and operate the proposed repository, lead us to the uneasy conclusion that the uncertainties of when Yucca Mountain would be open are not likely to be overcome in timeframes that meet the equity interests of our host communities. It is because of our members' commitments to our host communities to resolve the current stalemate in U.S. nuclear waste policy as expeditiously as possible that we urge this committee to support the legislation that would not only take steps to get the Nation's geologic repository program back on track but also authorize the establishment of an voluntary incentive-based siting program that would lead to the licensing of a consolidated interim storage facility and to initiate a pilot program to remove the material from our sites on a priority basis.    We are pleased that two potential storage projects have been announced by capable private sector companies in the past four months. These could offer DOE the means to meets its contractual obligations.    Mr. Chairman, and members of the subcommittee, a pilot storage program that prioritizes the removal of material from permanently shutdown sites that is responsive to private sector initiatives, can be accomplished with reasonable support from the Nuclear Waste Fund without any impact on the repository program. The pilot would demonstrate the ability of the Federal Government to plan and execute their responsibilities for waste acceptance and transportation under the standard contract, relieve the taxpayer of the obligation to continue paying Judgment Fund damages, and allow these sites to be repurposed for useful purposes.    We applaud your steadfast interest in a vibrant repository program, and we urge you to look favorably on the passage of legislation establishing a consolidated interim storage program that takes advantage of these new opportunities to remove used fuel and greater than Class C waste from those facilities where commercial reactor operations have permanently ceased.    Thank you for the opportunity, and we look forward to questions you may have.</t>
   </si>
   <si>
@@ -241,6 +286,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    And thanks to each of you for being here and making this effort on such an important issue.    Mr. Fitz, if I could talk to you for a moment, the Department of Energy recently announced its intention to initiate a new permanent repository program for nuclear material generated from National defense activities. As you are aware, Washington State holds about two-thirds of all defense material at the Hanford site. Did DOE consult with the State of Washington prior to making this announcement?</t>
   </si>
   <si>
@@ -316,6 +367,9 @@
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much for yielding back.    The chair now recognizes the gentleman from Kentucky, Mr. Whitfield, for 5 minutes.</t>
   </si>
   <si>
+    <t>Whitfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you very much, Mr. Chairman.    And thank you all for joining us today.    Mr. Kuczynski, when I go to the [inaudible] Talk about nuclear waste. And we talk about the almost $20 trillion of Federal debt that we are approaching in this country. And, in 1982 I think, Congress passed the Nuclear Waste Policy Act. And I think in 1987, Congress identified Yucca Mountain----</t>
   </si>
   <si>
@@ -341,6 +395,12 @@
   </si>
   <si>
     <t>400160</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. I think I can probably talk without it.</t>
@@ -743,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,7 +811,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,2621 +833,3071 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G60" t="s">
+        <v>90</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>117</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>117</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>117</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
+        <v>127</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G95" t="s">
+        <v>127</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G97" t="s">
+        <v>127</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G99" t="s">
+        <v>127</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G101" t="s">
+        <v>127</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>108</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G103" t="s">
+        <v>127</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>108</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G105" t="s">
+        <v>127</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>108</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G107" t="s">
+        <v>127</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>108</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G109" t="s">
+        <v>127</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96988.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96988.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Shimkus</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Tonko</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -94,6 +106,9 @@
     <t>412189</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>McNerney</t>
   </si>
   <si>
@@ -284,6 +299,9 @@
   </si>
   <si>
     <t>412280</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Harper</t>
@@ -803,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +829,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,3068 +854,3300 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>43</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" t="s">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>45</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s">
-        <v>117</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>123</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" t="s">
-        <v>117</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
-      </c>
-      <c r="G89" t="s">
-        <v>117</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>123</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>117</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>123</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G93" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I93" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G97" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>45</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G99" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>45</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>45</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G103" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>45</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G105" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" t="s">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G107" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
-      </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>146</v>
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
